--- a/target/classes/com/tcs/sims/testdata/testdata.xlsx
+++ b/target/classes/com/tcs/sims/testdata/testdata.xlsx
@@ -36,10 +36,10 @@
     <t>dualpassword</t>
   </si>
   <si>
-    <t>amble@!ded</t>
-  </si>
-  <si>
     <t>Jul@2018</t>
+  </si>
+  <si>
+    <t>beachb@tch</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,13 +432,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
